--- a/archivo.xlsx
+++ b/archivo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="B2" t="n">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -471,13 +471,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="B3" t="n">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -485,13 +485,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="B4" t="n">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="C4" t="n">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="B5" t="n">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="C5" t="n">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -513,13 +513,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="B6" t="n">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -527,13 +527,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="B7" t="n">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="B8" t="n">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="C8" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="B9" t="n">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="C9" t="n">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -569,13 +569,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="B10" t="n">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="C10" t="n">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="B11" t="n">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="C11" t="n">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -597,83 +597,83 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="B12" t="n">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="C12" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="B13" t="n">
-        <v>94</v>
+        <v>209</v>
       </c>
       <c r="C13" t="n">
         <v>39</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="B14" t="n">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="C14" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="B15" t="n">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="C15" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="B16" t="n">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="B17" t="n">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C17" t="n">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -681,13 +681,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="B18" t="n">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C18" t="n">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -695,13 +695,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="B19" t="n">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C19" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B20" t="n">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C20" t="n">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -723,15 +723,127 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="B21" t="n">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="C21" t="n">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>134</v>
+      </c>
+      <c r="B22" t="n">
+        <v>130</v>
+      </c>
+      <c r="C22" t="n">
+        <v>132</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112</v>
+      </c>
+      <c r="B23" t="n">
+        <v>108</v>
+      </c>
+      <c r="C23" t="n">
+        <v>106</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>105</v>
+      </c>
+      <c r="B24" t="n">
+        <v>101</v>
+      </c>
+      <c r="C24" t="n">
+        <v>99</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>109</v>
+      </c>
+      <c r="B25" t="n">
+        <v>102</v>
+      </c>
+      <c r="C25" t="n">
+        <v>101</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>111</v>
+      </c>
+      <c r="B26" t="n">
+        <v>107</v>
+      </c>
+      <c r="C26" t="n">
+        <v>105</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>138</v>
+      </c>
+      <c r="B27" t="n">
+        <v>138</v>
+      </c>
+      <c r="C27" t="n">
+        <v>138</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>117</v>
+      </c>
+      <c r="B28" t="n">
+        <v>113</v>
+      </c>
+      <c r="C28" t="n">
+        <v>111</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>114</v>
+      </c>
+      <c r="B29" t="n">
+        <v>108</v>
+      </c>
+      <c r="C29" t="n">
+        <v>106</v>
+      </c>
+      <c r="D29" t="n">
         <v>1</v>
       </c>
     </row>

--- a/archivo.xlsx
+++ b/archivo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B2" t="n">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -471,13 +471,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B3" t="n">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -485,13 +485,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B4" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" t="n">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B5" t="n">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C5" t="n">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -513,13 +513,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B6" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -527,13 +527,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="B7" t="n">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B8" t="n">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C8" t="n">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="B9" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C9" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -569,13 +569,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B10" t="n">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="C10" t="n">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B11" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="n">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -597,13 +597,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -611,13 +611,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -625,13 +625,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -639,13 +639,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -653,13 +653,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -667,13 +667,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="B17" t="n">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -681,13 +681,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -695,13 +695,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="B19" t="n">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -709,29 +709,15 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>89</v>
-      </c>
-      <c r="B21" t="n">
-        <v>89</v>
-      </c>
-      <c r="C21" t="n">
-        <v>44</v>
-      </c>
-      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
